--- a/Rates Raw/BLIFE_UL.xlsx
+++ b/Rates Raw/BLIFE_UL.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,6 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -69,12 +72,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +90,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -155,6 +164,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -165,7 +194,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -182,7 +211,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -523,7 +575,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L100"/>
+      <selection activeCell="J2" sqref="J2:J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -590,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="str">
-        <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
+        <f t="shared" ref="L2:L33" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("1","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -616,20 +668,20 @@
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="12">
         <v>2.069</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="12">
         <v>2.069</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f>CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("2","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -655,20 +707,20 @@
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="12">
         <v>2.069</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="12">
         <v>2.069</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>CONCATENATE(A4,B4,C4,D4,E4,F4,G4,H4,I4,J4,K4)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("3","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -694,20 +746,20 @@
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="12">
         <v>2.069</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="12">
         <v>2.069</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>CONCATENATE(A5,B5,C5,D5,E5,F5,G5,H5,I5,J5,K5)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("4","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -733,20 +785,20 @@
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12">
         <v>2.069</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>2.069</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f>CONCATENATE(A6,B6,C6,D6,E6,F6,G6,H6,I6,J6,K6)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("5","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -772,20 +824,20 @@
       <c r="G7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="12">
         <v>2.069</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="12">
         <v>2.069</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f>CONCATENATE(A7,B7,C7,D7,E7,F7,G7,H7,I7,J7,K7)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("6","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -811,20 +863,20 @@
       <c r="G8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="12">
         <v>2.069</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="12">
         <v>2.069</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f>CONCATENATE(A8,B8,C8,D8,E8,F8,G8,H8,I8,J8,K8)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("7","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -850,20 +902,20 @@
       <c r="G9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="12">
         <v>2.069</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="12">
         <v>2.069</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f>CONCATENATE(A9,B9,C9,D9,E9,F9,G9,H9,I9,J9,K9)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("8","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -889,20 +941,20 @@
       <c r="G10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="12">
         <v>2.069</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="12">
         <v>2.069</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f>CONCATENATE(A10,B10,C10,D10,E10,F10,G10,H10,I10,J10,K10)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("9","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -928,20 +980,20 @@
       <c r="G11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="12">
         <v>2.069</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="12">
         <v>2.069</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f>CONCATENATE(A11,B11,C11,D11,E11,F11,G11,H11,I11,J11,K11)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("10","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -967,20 +1019,20 @@
       <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="12">
         <v>2.069</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="12">
         <v>2.069</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f>CONCATENATE(A12,B12,C12,D12,E12,F12,G12,H12,I12,J12,K12)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("11","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -1006,20 +1058,20 @@
       <c r="G13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="12">
         <v>2.069</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="12">
         <v>2.069</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f>CONCATENATE(A13,B13,C13,D13,E13,F13,G13,H13,I13,J13,K13)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("12","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -1045,20 +1097,20 @@
       <c r="G14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="12">
         <v>2.069</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="12">
         <v>2.069</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f>CONCATENATE(A14,B14,C14,D14,E14,F14,G14,H14,I14,J14,K14)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("13","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -1084,20 +1136,20 @@
       <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="12">
         <v>2.069</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="12">
         <v>2.069</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f>CONCATENATE(A15,B15,C15,D15,E15,F15,G15,H15,I15,J15,K15)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("14","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -1123,20 +1175,20 @@
       <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="12">
         <v>2.069</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="12">
         <v>2.069</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f>CONCATENATE(A16,B16,C16,D16,E16,F16,G16,H16,I16,J16,K16)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("15","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -1162,20 +1214,20 @@
       <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="12">
         <v>2.069</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="12">
         <v>2.069</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L17" s="1" t="str">
-        <f>CONCATENATE(A17,B17,C17,D17,E17,F17,G17,H17,I17,J17,K17)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("16","2.069","2.069","2.069","2.069");</v>
       </c>
     </row>
@@ -1201,20 +1253,20 @@
       <c r="G18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="12">
         <v>2.2349999999999999</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="12">
         <v>2.2349999999999999</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f>CONCATENATE(A18,B18,C18,D18,E18,F18,G18,H18,I18,J18,K18)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("17","2.235","2.235","2.235","2.235");</v>
       </c>
     </row>
@@ -1240,20 +1292,20 @@
       <c r="G19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f>CONCATENATE(A19,B19,C19,D19,E19,F19,G19,H19,I19,J19,K19)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("18","2.245","2.245","2.245","2.245");</v>
       </c>
     </row>
@@ -1279,20 +1331,20 @@
       <c r="G20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="1" t="str">
-        <f>CONCATENATE(A20,B20,C20,D20,E20,F20,G20,H20,I20,J20,K20)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("19","2.245","2.245","2.245","2.245");</v>
       </c>
     </row>
@@ -1318,20 +1370,20 @@
       <c r="G21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f>CONCATENATE(A21,B21,C21,D21,E21,F21,G21,H21,I21,J21,K21)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("20","2.245","2.245","2.245","2.245");</v>
       </c>
     </row>
@@ -1357,20 +1409,20 @@
       <c r="G22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f>CONCATENATE(A22,B22,C22,D22,E22,F22,G22,H22,I22,J22,K22)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("21","2.245","2.245","2.245","2.245");</v>
       </c>
     </row>
@@ -1396,20 +1448,20 @@
       <c r="G23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f>CONCATENATE(A23,B23,C23,D23,E23,F23,G23,H23,I23,J23,K23)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("22","2.245","2.245","2.245","2.245");</v>
       </c>
     </row>
@@ -1424,32 +1476,32 @@
         <v>0</v>
       </c>
       <c r="D24" s="8">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
         <v>2.2450000000000001</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>2.2549999999999999</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f>CONCATENATE(A24,B24,C24,D24,E24,F24,G24,H24,I24,J24,K24)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("23","2.245","2.255","2.245","2.245");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("23","2.255","2.245","2.245","2.245");</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1463,32 +1515,32 @@
         <v>0</v>
       </c>
       <c r="D25" s="8">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
         <v>2.2450000000000001</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>2.2549999999999999</v>
-      </c>
       <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f>CONCATENATE(A25,B25,C25,D25,E25,F25,G25,H25,I25,J25,K25)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("24","2.245","2.255","2.245","2.245");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("24","2.255","2.245","2.245","2.245");</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1502,32 +1554,32 @@
         <v>0</v>
       </c>
       <c r="D26" s="8">
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
         <v>2.2450000000000001</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>2.2650000000000001</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="12">
         <v>2.2450000000000001</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f>CONCATENATE(A26,B26,C26,D26,E26,F26,G26,H26,I26,J26,K26)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("25","2.245","2.265","2.245","2.245");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("25","2.265","2.245","2.245","2.245");</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1552,21 +1604,21 @@
       <c r="G27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="12">
+        <v>2.266</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
         <v>2.2450000000000001</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>2.266</v>
-      </c>
       <c r="K27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="str">
-        <f>CONCATENATE(A27,B27,C27,D27,E27,F27,G27,H27,I27,J27,K27)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("26","2.266","2.266","2.245","2.266");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("26","2.266","2.266","2.266","2.245");</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1580,32 +1632,32 @@
         <v>0</v>
       </c>
       <c r="D28" s="8">
+        <v>2.286</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
         <v>2.266</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>2.286</v>
-      </c>
       <c r="G28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="12">
+        <v>2.266</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
         <v>2.2450000000000001</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>2.266</v>
-      </c>
       <c r="K28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L28" s="1" t="str">
-        <f>CONCATENATE(A28,B28,C28,D28,E28,F28,G28,H28,I28,J28,K28)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("27","2.266","2.286","2.245","2.266");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("27","2.286","2.266","2.266","2.245");</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1619,32 +1671,32 @@
         <v>0</v>
       </c>
       <c r="D29" s="8">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
         <v>2.2770000000000001</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2.3170000000000002</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="12">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
         <v>2.2450000000000001</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>2.2770000000000001</v>
-      </c>
       <c r="K29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f>CONCATENATE(A29,B29,C29,D29,E29,F29,G29,H29,I29,J29,K29)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("28","2.277","2.317","2.245","2.277");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("28","2.317","2.277","2.277","2.245");</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1658,32 +1710,32 @@
         <v>0</v>
       </c>
       <c r="D30" s="8">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
         <v>2.2770000000000001</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>2.3580000000000001</v>
-      </c>
       <c r="G30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="12">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
         <v>2.266</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
-        <v>2.2770000000000001</v>
-      </c>
       <c r="K30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f>CONCATENATE(A30,B30,C30,D30,E30,F30,G30,H30,I30,J30,K30)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("29","2.277","2.358","2.266","2.277");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("29","2.358","2.277","2.277","2.266");</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1697,32 +1749,32 @@
         <v>0</v>
       </c>
       <c r="D31" s="8">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
         <v>2.2970000000000002</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2.4409999999999998</v>
-      </c>
       <c r="G31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="12">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
         <v>2.266</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2.2970000000000002</v>
-      </c>
       <c r="K31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L31" s="1" t="str">
-        <f>CONCATENATE(A31,B31,C31,D31,E31,F31,G31,H31,I31,J31,K31)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("30","2.297","2.441","2.266","2.297");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("30","2.441","2.297","2.297","2.266");</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1736,32 +1788,32 @@
         <v>0</v>
       </c>
       <c r="D32" s="8">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
         <v>2.3279999999999998</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>2.5129999999999999</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="12">
+        <v>2.3279999999999998</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
         <v>2.2770000000000001</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <v>2.3279999999999998</v>
-      </c>
       <c r="K32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L32" s="1" t="str">
-        <f>CONCATENATE(A32,B32,C32,D32,E32,F32,G32,H32,I32,J32,K32)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("31","2.328","2.513","2.277","2.328");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("31","2.513","2.328","2.328","2.277");</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1775,32 +1827,32 @@
         <v>0</v>
       </c>
       <c r="D33" s="8">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
         <v>2.37</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>2.6059999999999999</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="12">
+        <v>2.37</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
         <v>2.2770000000000001</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>2.37</v>
-      </c>
       <c r="K33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L33" s="1" t="str">
-        <f>CONCATENATE(A33,B33,C33,D33,E33,F33,G33,H33,I33,J33,K33)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("32","2.37","2.606","2.277","2.37");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("32","2.606","2.37","2.37","2.277");</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1814,32 +1866,32 @@
         <v>0</v>
       </c>
       <c r="D34" s="8">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <v>2.4529999999999998</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>2.7509999999999999</v>
-      </c>
       <c r="G34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="12">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
         <v>2.2970000000000002</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>2.4529999999999998</v>
-      </c>
       <c r="K34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L34" s="1" t="str">
-        <f>CONCATENATE(A34,B34,C34,D34,E34,F34,G34,H34,I34,J34,K34)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("33","2.453","2.751","2.297","2.453");</v>
+        <f t="shared" ref="L34:L65" si="1">CONCATENATE(A34,B34,C34,D34,E34,F34,G34,H34,I34,J34,K34)</f>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("33","2.751","2.453","2.453","2.297");</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1853,32 +1905,32 @@
         <v>0</v>
       </c>
       <c r="D35" s="8">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
         <v>2.5259999999999998</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>2.9169999999999998</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="12">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
         <v>2.3279999999999998</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <v>2.5259999999999998</v>
-      </c>
       <c r="K35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L35" s="1" t="str">
-        <f>CONCATENATE(A35,B35,C35,D35,E35,F35,G35,H35,I35,J35,K35)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("34","2.526","2.917","2.328","2.526");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("34","2.917","2.526","2.526","2.328");</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1892,32 +1944,32 @@
         <v>0</v>
       </c>
       <c r="D36" s="8">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
         <v>2.62</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>3.0720000000000001</v>
-      </c>
       <c r="G36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="12">
+        <v>2.62</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
         <v>2.37</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>2.62</v>
-      </c>
       <c r="K36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L36" s="1" t="str">
-        <f>CONCATENATE(A36,B36,C36,D36,E36,F36,G36,H36,I36,J36,K36)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("35","2.62","3.072","2.37","2.62");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("35","3.072","2.62","2.62","2.37");</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1931,32 +1983,32 @@
         <v>0</v>
       </c>
       <c r="D37" s="8">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
         <v>2.7650000000000001</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>3.2789999999999999</v>
-      </c>
       <c r="G37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="12">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
         <v>2.4529999999999998</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>2.7650000000000001</v>
-      </c>
       <c r="K37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L37" s="1" t="str">
-        <f>CONCATENATE(A37,B37,C37,D37,E37,F37,G37,H37,I37,J37,K37)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("36","2.765","3.279","2.453","2.765");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("36","3.279","2.765","2.765","2.453");</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1970,32 +2022,32 @@
         <v>0</v>
       </c>
       <c r="D38" s="8">
+        <v>3.5369999999999999</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
         <v>2.931</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>3.5369999999999999</v>
-      </c>
       <c r="G38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="12">
+        <v>2.931</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
         <v>2.5259999999999998</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
-        <v>2.931</v>
-      </c>
       <c r="K38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L38" s="1" t="str">
-        <f>CONCATENATE(A38,B38,C38,D38,E38,F38,G38,H38,I38,J38,K38)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("37","2.931","3.537","2.526","2.931");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("37","3.537","2.931","2.931","2.526");</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2009,32 +2061,32 @@
         <v>0</v>
       </c>
       <c r="D39" s="8">
+        <v>3.806</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
         <v>3.0870000000000002</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>3.806</v>
-      </c>
       <c r="G39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="12">
+        <v>3.0870000000000002</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
         <v>2.62</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <v>3.0870000000000002</v>
-      </c>
       <c r="K39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L39" s="1" t="str">
-        <f>CONCATENATE(A39,B39,C39,D39,E39,F39,G39,H39,I39,J39,K39)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("38","3.087","3.806","2.62","3.087");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("38","3.806","3.087","3.087","2.62");</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2048,32 +2100,32 @@
         <v>0</v>
       </c>
       <c r="D40" s="8">
+        <v>4.085</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
         <v>3.2949999999999999</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>4.085</v>
-      </c>
       <c r="G40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="12">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
         <v>2.7650000000000001</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
-        <v>3.2949999999999999</v>
-      </c>
       <c r="K40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L40" s="1" t="str">
-        <f>CONCATENATE(A40,B40,C40,D40,E40,F40,G40,H40,I40,J40,K40)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("39","3.295","4.085","2.765","3.295");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("39","4.085","3.295","3.295","2.765");</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2087,32 +2139,32 @@
         <v>0</v>
       </c>
       <c r="D41" s="8">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
         <v>3.5550000000000002</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>4.3959999999999999</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="12">
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
         <v>2.931</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <v>3.5550000000000002</v>
-      </c>
       <c r="K41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L41" s="1" t="str">
-        <f>CONCATENATE(A41,B41,C41,D41,E41,F41,G41,H41,I41,J41,K41)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("40","3.555","4.396","2.931","3.555");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("40","4.396","3.555","3.555","2.931");</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2126,32 +2178,32 @@
         <v>0</v>
       </c>
       <c r="D42" s="8">
+        <v>4.7160000000000002</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
         <v>3.8250000000000002</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>4.7160000000000002</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="12">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
         <v>3.0870000000000002</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>3.8250000000000002</v>
-      </c>
       <c r="K42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L42" s="1" t="str">
-        <f>CONCATENATE(A42,B42,C42,D42,E42,F42,G42,H42,I42,J42,K42)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("41","3.825","4.716","3.087","3.825");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("41","4.716","3.825","3.825","3.087");</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2165,32 +2217,32 @@
         <v>0</v>
       </c>
       <c r="D43" s="8">
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
         <v>4.1059999999999999</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>5.0780000000000003</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="12">
+        <v>4.1059999999999999</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
         <v>3.2949999999999999</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <v>4.1059999999999999</v>
-      </c>
       <c r="K43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L43" s="1" t="str">
-        <f>CONCATENATE(A43,B43,C43,D43,E43,F43,G43,H43,I43,J43,K43)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("42","4.106","5.078","3.295","4.106");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("42","5.078","4.106","4.106","3.295");</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2204,32 +2256,32 @@
         <v>0</v>
       </c>
       <c r="D44" s="8">
+        <v>5.4610000000000003</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
         <v>4.4180000000000001</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>5.4610000000000003</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="12">
+        <v>4.4180000000000001</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
         <v>3.5550000000000002</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>4.4180000000000001</v>
-      </c>
       <c r="K44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L44" s="1" t="str">
-        <f>CONCATENATE(A44,B44,C44,D44,E44,F44,G44,H44,I44,J44,K44)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("43","4.418","5.461","3.555","4.418");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("43","5.461","4.418","4.418","3.555");</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2243,32 +2295,32 @@
         <v>0</v>
       </c>
       <c r="D45" s="8">
+        <v>5.8540000000000001</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
         <v>4.74</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>5.8540000000000001</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="12">
+        <v>4.74</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
         <v>3.8250000000000002</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <v>4.74</v>
-      </c>
       <c r="K45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L45" s="1" t="str">
-        <f>CONCATENATE(A45,B45,C45,D45,E45,F45,G45,H45,I45,J45,K45)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("44","4.74","5.854","3.825","4.74");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("44","5.854","4.74","4.74","3.825");</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2282,32 +2334,32 @@
         <v>0</v>
       </c>
       <c r="D46" s="8">
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
         <v>5.2220000000000004</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>6.2679999999999998</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="12">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
         <v>4.1059999999999999</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
-        <v>5.2220000000000004</v>
-      </c>
       <c r="K46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L46" s="1" t="str">
-        <f>CONCATENATE(A46,B46,C46,D46,E46,F46,G46,H46,I46,J46,K46)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("45","5.222","6.268","4.106","5.222");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("45","6.268","5.222","5.222","4.106");</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2321,32 +2373,32 @@
         <v>0</v>
       </c>
       <c r="D47" s="8">
+        <v>6.702</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
         <v>5.6550000000000002</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>6.702</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="12">
+        <v>5.6550000000000002</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
         <v>4.4180000000000001</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <v>5.6550000000000002</v>
-      </c>
       <c r="K47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L47" s="1" t="str">
-        <f>CONCATENATE(A47,B47,C47,D47,E47,F47,G47,H47,I47,J47,K47)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("46","5.655","6.702","4.418","5.655");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("46","6.702","5.655","5.655","4.418");</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2360,32 +2412,32 @@
         <v>0</v>
       </c>
       <c r="D48" s="8">
+        <v>7.1879999999999997</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
         <v>6.1059999999999999</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>7.1879999999999997</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="12">
+        <v>6.1059999999999999</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
         <v>4.74</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
-        <v>6.1059999999999999</v>
-      </c>
       <c r="K48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L48" s="1" t="str">
-        <f>CONCATENATE(A48,B48,C48,D48,E48,F48,G48,H48,I48,J48,K48)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("47","6.106","7.188","4.74","6.106");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("47","7.188","6.106","6.106","4.74");</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2399,32 +2451,32 @@
         <v>0</v>
       </c>
       <c r="D49" s="8">
+        <v>7.7160000000000002</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
         <v>6.5910000000000002</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>7.7160000000000002</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="12">
+        <v>6.5910000000000002</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
         <v>5.1040000000000001</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>6.5910000000000002</v>
-      </c>
       <c r="K49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L49" s="1" t="str">
-        <f>CONCATENATE(A49,B49,C49,D49,E49,F49,G49,H49,I49,J49,K49)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("48","6.591","7.716","5.104","6.591");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("48","7.716","6.591","6.591","5.104");</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2438,32 +2490,32 @@
         <v>0</v>
       </c>
       <c r="D50" s="8">
+        <v>8.3149999999999995</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
         <v>7.1390000000000002</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>8.3149999999999995</v>
-      </c>
       <c r="G50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="12">
+        <v>7.1390000000000002</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
         <v>5.4889999999999999</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>7.1390000000000002</v>
-      </c>
       <c r="K50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L50" s="1" t="str">
-        <f>CONCATENATE(A50,B50,C50,D50,E50,F50,G50,H50,I50,J50,K50)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("49","7.139","8.315","5.489","7.139");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("49","8.315","7.139","7.139","5.489");</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2477,32 +2529,32 @@
         <v>0</v>
       </c>
       <c r="D51" s="8">
+        <v>8.9979999999999993</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
         <v>7.7309999999999999</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>8.9979999999999993</v>
-      </c>
       <c r="G51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="12">
+        <v>7.7309999999999999</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
         <v>5.8840000000000003</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <v>7.7309999999999999</v>
-      </c>
       <c r="K51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L51" s="1" t="str">
-        <f>CONCATENATE(A51,B51,C51,D51,E51,F51,G51,H51,I51,J51,K51)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("50","7.731","8.998","5.884","7.731");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("50","8.998","7.731","7.731","5.884");</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2516,32 +2568,32 @@
         <v>0</v>
       </c>
       <c r="D52" s="8">
+        <v>9.8049999999999997</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
         <v>8.4290000000000003</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>9.8049999999999997</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="12">
+        <v>8.4290000000000003</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
         <v>6.4459999999999997</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
-        <v>8.4290000000000003</v>
-      </c>
       <c r="K52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L52" s="1" t="str">
-        <f>CONCATENATE(A52,B52,C52,D52,E52,F52,G52,H52,I52,J52,K52)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("51","8.429","9.805","6.446","8.429");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("51","9.805","8.429","8.429","6.446");</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2555,32 +2607,32 @@
         <v>0</v>
       </c>
       <c r="D53" s="8">
+        <v>10.766999999999999</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
         <v>9.1980000000000004</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>10.766999999999999</v>
-      </c>
       <c r="G53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="12">
+        <v>9.1980000000000004</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
         <v>7.0339999999999998</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <v>9.1980000000000004</v>
-      </c>
       <c r="K53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L53" s="1" t="str">
-        <f>CONCATENATE(A53,B53,C53,D53,E53,F53,G53,H53,I53,J53,K53)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("52","9.198","10.767","7.034","9.198");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("52","10.767","9.198","9.198","7.034");</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2594,32 +2646,32 @@
         <v>0</v>
       </c>
       <c r="D54" s="8">
+        <v>11.842000000000001</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
         <v>10.082000000000001</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8">
-        <v>11.842000000000001</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="12">
+        <v>10.082000000000001</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
         <v>7.7089999999999996</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <v>10.082000000000001</v>
-      </c>
       <c r="K54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L54" s="1" t="str">
-        <f>CONCATENATE(A54,B54,C54,D54,E54,F54,G54,H54,I54,J54,K54)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("53","10.082","11.842","7.709","10.082");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("53","11.842","10.082","10.082","7.709");</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2633,32 +2685,32 @@
         <v>0</v>
       </c>
       <c r="D55" s="8">
+        <v>12.907</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
         <v>11.054</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
-        <v>12.907</v>
-      </c>
       <c r="G55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="12">
+        <v>11.054</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
         <v>8.4529999999999994</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
-        <v>11.054</v>
-      </c>
       <c r="K55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L55" s="1" t="str">
-        <f>CONCATENATE(A55,B55,C55,D55,E55,F55,G55,H55,I55,J55,K55)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("54","11.054","12.907","8.453","11.054");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("54","12.907","11.054","11.054","8.453");</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2672,32 +2724,32 @@
         <v>0</v>
       </c>
       <c r="D56" s="8">
+        <v>13.930999999999999</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
         <v>12.105</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>13.930999999999999</v>
-      </c>
       <c r="G56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="12">
+        <v>12.105</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
         <v>9.2569999999999997</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8">
-        <v>12.105</v>
-      </c>
       <c r="K56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L56" s="1" t="str">
-        <f>CONCATENATE(A56,B56,C56,D56,E56,F56,G56,H56,I56,J56,K56)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("55","12.105","13.931","9.257","12.105");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("55","13.931","12.105","12.105","9.257");</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2711,32 +2763,32 @@
         <v>0</v>
       </c>
       <c r="D57" s="8">
+        <v>15.069000000000001</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
         <v>13.218</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
-        <v>15.069000000000001</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="12">
+        <v>13.218</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
         <v>10.108000000000001</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
-        <v>13.218</v>
-      </c>
       <c r="K57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L57" s="1" t="str">
-        <f>CONCATENATE(A57,B57,C57,D57,E57,F57,G57,H57,I57,J57,K57)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("56","13.218","15.069","10.108","13.218");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("56","15.069","13.218","13.218","10.108");</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2750,32 +2802,32 @@
         <v>0</v>
       </c>
       <c r="D58" s="8">
+        <v>16.372</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
         <v>14.401999999999999</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8">
-        <v>16.372</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="12">
+        <v>14.401999999999999</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
         <v>11.013999999999999</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8">
-        <v>14.401999999999999</v>
-      </c>
       <c r="K58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L58" s="1" t="str">
-        <f>CONCATENATE(A58,B58,C58,D58,E58,F58,G58,H58,I58,J58,K58)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("57","14.402","16.372","11.014","14.402");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("57","16.372","14.402","14.402","11.014");</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2789,32 +2841,32 @@
         <v>0</v>
       </c>
       <c r="D59" s="8">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
         <v>15.666</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>17.829999999999998</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="12">
+        <v>15.666</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
         <v>11.98</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
-        <v>15.666</v>
-      </c>
       <c r="K59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L59" s="1" t="str">
-        <f>CONCATENATE(A59,B59,C59,D59,E59,F59,G59,H59,I59,J59,K59)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("58","15.666","17.83","11.98","15.666");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("58","17.83","15.666","15.666","11.98");</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2828,32 +2880,32 @@
         <v>0</v>
       </c>
       <c r="D60" s="8">
+        <v>19.391999999999999</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
         <v>17.035</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>19.391999999999999</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="12">
+        <v>17.035</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
         <v>13.026999999999999</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="8">
-        <v>17.035</v>
-      </c>
       <c r="K60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L60" s="1" t="str">
-        <f>CONCATENATE(A60,B60,C60,D60,E60,F60,G60,H60,I60,J60,K60)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("59","17.035","19.392","13.027","17.035");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("59","19.392","17.035","17.035","13.027");</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2867,32 +2919,32 @@
         <v>0</v>
       </c>
       <c r="D61" s="8">
+        <v>21.099</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
         <v>18.555</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>21.099</v>
-      </c>
       <c r="G61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="12">
+        <v>18.555</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
         <v>14.189</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <v>18.555</v>
-      </c>
       <c r="K61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L61" s="1" t="str">
-        <f>CONCATENATE(A61,B61,C61,D61,E61,F61,G61,H61,I61,J61,K61)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("60","18.555","21.099","14.189","18.555");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("60","21.099","18.555","18.555","14.189");</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2905,33 +2957,33 @@
       <c r="C62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="9">
+        <v>23.701000000000001</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="9">
         <v>18.995000000000001</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8">
-        <v>23.701000000000001</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="13">
+        <v>18.995000000000001</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="13">
         <v>15.217000000000001</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="8">
-        <v>18.995000000000001</v>
-      </c>
       <c r="K62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L62" s="1" t="str">
-        <f>CONCATENATE(A62,B62,C62,D62,E62,F62,G62,H62,I62,J62,K62)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("61","18.995","23.701","15.217","18.995");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("61","23.701","18.995","18.995","15.217");</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2944,33 +2996,33 @@
       <c r="C63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
+        <v>26.021000000000001</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="9">
         <v>20.722999999999999</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8">
-        <v>26.021000000000001</v>
-      </c>
       <c r="G63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="13">
+        <v>20.722999999999999</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="13">
         <v>16.524000000000001</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
-        <v>20.722999999999999</v>
-      </c>
       <c r="K63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L63" s="1" t="str">
-        <f>CONCATENATE(A63,B63,C63,D63,E63,F63,G63,H63,I63,J63,K63)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("62","20.723","26.021","16.524","20.723");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("62","26.021","20.723","20.723","16.524");</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2983,33 +3035,33 @@
       <c r="C64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="9">
+        <v>28.574000000000002</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
         <v>22.616</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>28.574000000000002</v>
-      </c>
       <c r="G64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="13">
+        <v>22.616</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="13">
         <v>18.023</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
-        <v>22.616</v>
-      </c>
       <c r="K64" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L64" s="1" t="str">
-        <f>CONCATENATE(A64,B64,C64,D64,E64,F64,G64,H64,I64,J64,K64)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("63","22.616","28.574","18.023","22.616");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("63","28.574","22.616","22.616","18.023");</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3022,33 +3074,33 @@
       <c r="C65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="9">
+        <v>31.373999999999999</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
         <v>24.727</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>31.373999999999999</v>
-      </c>
       <c r="G65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="13">
+        <v>24.727</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="13">
         <v>19.702999999999999</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
-        <v>24.727</v>
-      </c>
       <c r="K65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f>CONCATENATE(A65,B65,C65,D65,E65,F65,G65,H65,I65,J65,K65)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("64","24.727","31.374","19.703","24.727");</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("64","31.374","24.727","24.727","19.703");</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3061,33 +3113,33 @@
       <c r="C66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="9">
+        <v>34.323999999999998</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
         <v>27.149000000000001</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8">
-        <v>34.323999999999998</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="13">
+        <v>27.149000000000001</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="13">
         <v>21.507999999999999</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
-        <v>27.149000000000001</v>
-      </c>
       <c r="K66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L66" s="1" t="str">
-        <f>CONCATENATE(A66,B66,C66,D66,E66,F66,G66,H66,I66,J66,K66)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("65","27.149","34.324","21.508","27.149");</v>
+        <f t="shared" ref="L66:L97" si="2">CONCATENATE(A66,B66,C66,D66,E66,F66,G66,H66,I66,J66,K66)</f>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("65","34.324","27.149","27.149","21.508");</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3100,33 +3152,33 @@
       <c r="C67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="9">
+        <v>37.448999999999998</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
         <v>29.867999999999999</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>37.448999999999998</v>
-      </c>
       <c r="G67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="13">
+        <v>29.867999999999999</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="13">
         <v>23.469000000000001</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
-        <v>29.867999999999999</v>
-      </c>
       <c r="K67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f>CONCATENATE(A67,B67,C67,D67,E67,F67,G67,H67,I67,J67,K67)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("66","29.868","37.449","23.469","29.868");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("66","37.449","29.868","29.868","23.469");</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3139,33 +3191,33 @@
       <c r="C68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="9">
+        <v>40.874000000000002</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
         <v>32.835000000000001</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8">
-        <v>40.874000000000002</v>
-      </c>
       <c r="G68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="13">
+        <v>32.835000000000001</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="13">
         <v>25.672000000000001</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="8">
-        <v>32.835000000000001</v>
-      </c>
       <c r="K68" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f>CONCATENATE(A68,B68,C68,D68,E68,F68,G68,H68,I68,J68,K68)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("67","32.835","40.874","25.672","32.835");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("67","40.874","32.835","32.835","25.672");</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3178,33 +3230,33 @@
       <c r="C69" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="9">
+        <v>44.176000000000002</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9">
         <v>35.957000000000001</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8">
-        <v>44.176000000000002</v>
-      </c>
       <c r="G69" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="13">
+        <v>35.957000000000001</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="13">
         <v>28.190999999999999</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <v>35.957000000000001</v>
-      </c>
       <c r="K69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f>CONCATENATE(A69,B69,C69,D69,E69,F69,G69,H69,I69,J69,K69)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("68","35.957","44.176","28.191","35.957");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("68","44.176","35.957","35.957","28.191");</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3217,33 +3269,33 @@
       <c r="C70" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="9">
+        <v>47.801000000000002</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
         <v>39.262</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8">
-        <v>47.801000000000002</v>
-      </c>
       <c r="G70" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="13">
+        <v>39.262</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="13">
         <v>30.97</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
-        <v>39.262</v>
-      </c>
       <c r="K70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f>CONCATENATE(A70,B70,C70,D70,E70,F70,G70,H70,I70,J70,K70)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("69","39.262","47.801","30.97","39.262");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("69","47.801","39.262","39.262","30.97");</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3256,33 +3308,33 @@
       <c r="C71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="9">
+        <v>52.398000000000003</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="9">
         <v>42.863999999999997</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8">
-        <v>52.398000000000003</v>
-      </c>
       <c r="G71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="13">
+        <v>42.863999999999997</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
         <v>34.012</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
-        <v>42.863999999999997</v>
-      </c>
       <c r="K71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L71" s="1" t="str">
-        <f>CONCATENATE(A71,B71,C71,D71,E71,F71,G71,H71,I71,J71,K71)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("70","42.864","52.398","34.012","42.864");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("70","52.398","42.864","42.864","34.012");</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3295,33 +3347,33 @@
       <c r="C72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="10">
+        <v>55.26</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="10">
         <v>44.872999999999998</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
-        <v>55.26</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="14">
+        <v>44.872999999999998</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
         <v>35.481999999999999</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
-        <v>44.872999999999998</v>
-      </c>
       <c r="K72" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L72" s="1" t="str">
-        <f>CONCATENATE(A72,B72,C72,D72,E72,F72,G72,H72,I72,J72,K72)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("71","44.873","55.26","35.482","44.873");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("71","55.26","44.873","44.873","35.482");</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3334,33 +3386,33 @@
       <c r="C73" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="10">
+        <v>58.13</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="10">
         <v>46.901000000000003</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <v>58.13</v>
-      </c>
       <c r="G73" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="14">
+        <v>46.901000000000003</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="14">
         <v>36.984000000000002</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <v>46.901000000000003</v>
-      </c>
       <c r="K73" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L73" s="1" t="str">
-        <f>CONCATENATE(A73,B73,C73,D73,E73,F73,G73,H73,I73,J73,K73)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("72","46.901","58.13","36.984","46.901");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("72","58.13","46.901","46.901","36.984");</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3373,33 +3425,33 @@
       <c r="C74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="10">
+        <v>61.006999999999998</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="10">
         <v>48.948999999999998</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
-        <v>61.006999999999998</v>
-      </c>
       <c r="G74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="14">
+        <v>48.948999999999998</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
         <v>38.517000000000003</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J74" s="8">
-        <v>48.948999999999998</v>
-      </c>
       <c r="K74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L74" s="1" t="str">
-        <f>CONCATENATE(A74,B74,C74,D74,E74,F74,G74,H74,I74,J74,K74)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("73","48.949","61.007","38.517","48.949");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("73","61.007","48.949","48.949","38.517");</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3412,33 +3464,33 @@
       <c r="C75" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="10">
+        <v>63.890999999999998</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="10">
         <v>51.012999999999998</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
-        <v>63.890999999999998</v>
-      </c>
       <c r="G75" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="14">
+        <v>51.012999999999998</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
         <v>40.076000000000001</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
-        <v>51.012999999999998</v>
-      </c>
       <c r="K75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L75" s="1" t="str">
-        <f>CONCATENATE(A75,B75,C75,D75,E75,F75,G75,H75,I75,J75,K75)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("74","51.013","63.891","40.076","51.013");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("74","63.891","51.013","51.013","40.076");</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3452,32 +3504,32 @@
         <v>0</v>
       </c>
       <c r="D76" s="8">
+        <v>66.781000000000006</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
         <v>53.09</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="8">
-        <v>66.781000000000006</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="12">
+        <v>53.09</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
         <v>41.655999999999999</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
-        <v>53.09</v>
-      </c>
       <c r="K76" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L76" s="1" t="str">
-        <f>CONCATENATE(A76,B76,C76,D76,E76,F76,G76,H76,I76,J76,K76)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("75","53.09","66.781","41.656","53.09");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("75","66.781","53.09","53.09","41.656");</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3491,32 +3543,32 @@
         <v>0</v>
       </c>
       <c r="D77" s="8">
+        <v>72.819000000000003</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
         <v>57.837000000000003</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <v>72.819000000000003</v>
-      </c>
       <c r="G77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="12">
+        <v>57.837000000000003</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
         <v>45.637999999999998</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <v>57.837000000000003</v>
-      </c>
       <c r="K77" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L77" s="1" t="str">
-        <f>CONCATENATE(A77,B77,C77,D77,E77,F77,G77,H77,I77,J77,K77)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("76","57.837","72.819","45.638","57.837");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("76","72.819","57.837","57.837","45.638");</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3530,32 +3582,32 @@
         <v>0</v>
       </c>
       <c r="D78" s="8">
+        <v>79.007000000000005</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
         <v>62.854999999999997</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8">
-        <v>79.007000000000005</v>
-      </c>
       <c r="G78" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="12">
+        <v>62.854999999999997</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
         <v>50.304000000000002</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J78" s="8">
-        <v>62.854999999999997</v>
-      </c>
       <c r="K78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L78" s="1" t="str">
-        <f>CONCATENATE(A78,B78,C78,D78,E78,F78,G78,H78,I78,J78,K78)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("77","62.855","79.007","50.304","62.855");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("77","79.007","62.855","62.855","50.304");</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3569,32 +3621,32 @@
         <v>0</v>
       </c>
       <c r="D79" s="8">
+        <v>84.578999999999994</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
         <v>68.763000000000005</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
-        <v>84.578999999999994</v>
-      </c>
       <c r="G79" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="12">
+        <v>68.763000000000005</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
         <v>55.466999999999999</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J79" s="8">
-        <v>68.763000000000005</v>
-      </c>
       <c r="K79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L79" s="1" t="str">
-        <f>CONCATENATE(A79,B79,C79,D79,E79,F79,G79,H79,I79,J79,K79)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("78","68.763","84.579","55.467","68.763");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("78","84.579","68.763","68.763","55.467");</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3608,32 +3660,32 @@
         <v>0</v>
       </c>
       <c r="D80" s="8">
+        <v>90.546000000000006</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
         <v>74.960999999999999</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8">
-        <v>90.546000000000006</v>
-      </c>
       <c r="G80" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="12">
+        <v>74.960999999999999</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12">
         <v>60.393999999999998</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J80" s="8">
-        <v>74.960999999999999</v>
-      </c>
       <c r="K80" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L80" s="1" t="str">
-        <f>CONCATENATE(A80,B80,C80,D80,E80,F80,G80,H80,I80,J80,K80)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("79","74.961","90.546","60.394","74.961");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("79","90.546","74.961","74.961","60.394");</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3647,32 +3699,32 @@
         <v>0</v>
       </c>
       <c r="D81" s="8">
+        <v>98.507999999999996</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
         <v>81.33</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8">
-        <v>98.507999999999996</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="12">
+        <v>81.33</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
         <v>65.622</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J81" s="8">
-        <v>81.33</v>
-      </c>
       <c r="K81" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L81" s="1" t="str">
-        <f>CONCATENATE(A81,B81,C81,D81,E81,F81,G81,H81,I81,J81,K81)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("80","81.33","98.508","65.622","81.33");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("80","98.508","81.33","81.33","65.622");</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3686,32 +3738,32 @@
         <v>0</v>
       </c>
       <c r="D82" s="8">
+        <v>107.983</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
         <v>87.111000000000004</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F82" s="8">
-        <v>107.983</v>
-      </c>
       <c r="G82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="12">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
         <v>71.783000000000001</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J82" s="8">
-        <v>87.111000000000004</v>
-      </c>
       <c r="K82" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L82" s="1" t="str">
-        <f>CONCATENATE(A82,B82,C82,D82,E82,F82,G82,H82,I82,J82,K82)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("81","87.111","107.983","71.783","87.111");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("81","107.983","87.111","87.111","71.783");</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3725,32 +3777,32 @@
         <v>0</v>
       </c>
       <c r="D83" s="8">
+        <v>118.251</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
         <v>93.319000000000003</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
-        <v>118.251</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="12">
+        <v>93.319000000000003</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
         <v>78.278000000000006</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J83" s="8">
-        <v>93.319000000000003</v>
-      </c>
       <c r="K83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L83" s="1" t="str">
-        <f>CONCATENATE(A83,B83,C83,D83,E83,F83,G83,H83,I83,J83,K83)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("82","93.319","118.251","78.278","93.319");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("82","118.251","93.319","93.319","78.278");</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3764,32 +3816,32 @@
         <v>0</v>
       </c>
       <c r="D84" s="8">
+        <v>128.90100000000001</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
         <v>101.548</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
-        <v>128.90100000000001</v>
-      </c>
       <c r="G84" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="12">
+        <v>101.548</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="12">
         <v>84.978999999999999</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J84" s="8">
-        <v>101.548</v>
-      </c>
       <c r="K84" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L84" s="1" t="str">
-        <f>CONCATENATE(A84,B84,C84,D84,E84,F84,G84,H84,I84,J84,K84)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("83","101.548","128.901","84.979","101.548");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("83","128.901","101.548","101.548","84.979");</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3803,32 +3855,32 @@
         <v>0</v>
       </c>
       <c r="D85" s="8">
+        <v>139.31</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
         <v>111.307</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8">
-        <v>139.31</v>
-      </c>
       <c r="G85" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="12">
+        <v>111.307</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
         <v>91.103999999999999</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J85" s="8">
-        <v>111.307</v>
-      </c>
       <c r="K85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L85" s="1" t="str">
-        <f>CONCATENATE(A85,B85,C85,D85,E85,F85,G85,H85,I85,J85,K85)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("84","111.307","139.31","91.104","111.307");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("84","139.31","111.307","111.307","91.104");</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3842,32 +3894,32 @@
         <v>0</v>
       </c>
       <c r="D86" s="8">
+        <v>149.559</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
         <v>121.861</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8">
-        <v>149.559</v>
-      </c>
       <c r="G86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="12">
+        <v>121.861</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="12">
         <v>97.649000000000001</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J86" s="8">
-        <v>121.861</v>
-      </c>
       <c r="K86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L86" s="1" t="str">
-        <f>CONCATENATE(A86,B86,C86,D86,E86,F86,G86,H86,I86,J86,K86)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("85","121.861","149.559","97.649","121.861");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("85","149.559","121.861","121.861","97.649");</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3881,32 +3933,32 @@
         <v>0</v>
       </c>
       <c r="D87" s="8">
+        <v>160.43199999999999</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
         <v>132.79499999999999</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8">
-        <v>160.43199999999999</v>
-      </c>
       <c r="G87" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="12">
+        <v>132.79499999999999</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" s="12">
         <v>106.197</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J87" s="8">
-        <v>132.79499999999999</v>
-      </c>
       <c r="K87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L87" s="1" t="str">
-        <f>CONCATENATE(A87,B87,C87,D87,E87,F87,G87,H87,I87,J87,K87)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("86","132.795","160.432","106.197","132.795");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("86","160.432","132.795","132.795","106.197");</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3920,32 +3972,32 @@
         <v>0</v>
       </c>
       <c r="D88" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
         <v>143.48699999999999</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="8">
-        <v>171.96</v>
-      </c>
       <c r="G88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H88" s="12">
+        <v>143.48699999999999</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="12">
         <v>116.26300000000001</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J88" s="8">
-        <v>143.48699999999999</v>
-      </c>
       <c r="K88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L88" s="1" t="str">
-        <f>CONCATENATE(A88,B88,C88,D88,E88,F88,G88,H88,I88,J88,K88)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("87","143.487","171.96","116.263","143.487");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("87","171.96","143.487","143.487","116.263");</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3959,32 +4011,32 @@
         <v>0</v>
       </c>
       <c r="D89" s="8">
+        <v>184.17400000000001</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8">
         <v>154.02000000000001</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8">
-        <v>184.17400000000001</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="12">
+        <v>154.02000000000001</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="12">
         <v>127.12</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J89" s="8">
-        <v>154.02000000000001</v>
-      </c>
       <c r="K89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L89" s="1" t="str">
-        <f>CONCATENATE(A89,B89,C89,D89,E89,F89,G89,H89,I89,J89,K89)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("88","154.02","184.174","127.12","154.02");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("88","184.174","154.02","154.02","127.12");</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3998,32 +4050,32 @@
         <v>0</v>
       </c>
       <c r="D90" s="8">
+        <v>197.08600000000001</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
         <v>165.184</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8">
-        <v>197.08600000000001</v>
-      </c>
       <c r="G90" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H90" s="12">
+        <v>165.184</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="12">
         <v>138.363</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J90" s="8">
-        <v>165.184</v>
-      </c>
       <c r="K90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L90" s="1" t="str">
-        <f>CONCATENATE(A90,B90,C90,D90,E90,F90,G90,H90,I90,J90,K90)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("89","165.184","197.086","138.363","165.184");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("89","197.086","165.184","165.184","138.363");</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4037,32 +4089,32 @@
         <v>0</v>
       </c>
       <c r="D91" s="8">
+        <v>197.28</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8">
         <v>177.018</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8">
-        <v>197.28</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="12">
+        <v>177.018</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" s="12">
         <v>149.38499999999999</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J91" s="8">
-        <v>177.018</v>
-      </c>
       <c r="K91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L91" s="1" t="str">
-        <f>CONCATENATE(A91,B91,C91,D91,E91,F91,G91,H91,I91,J91,K91)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("90","177.018","197.28","149.385","177.018");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("90","197.28","177.018","177.018","149.385");</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4076,32 +4128,32 @@
         <v>0</v>
       </c>
       <c r="D92" s="8">
+        <v>197.48500000000001</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="8">
         <v>189.565</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="8">
-        <v>197.48500000000001</v>
-      </c>
       <c r="G92" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="12">
+        <v>189.565</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" s="12">
         <v>160.28800000000001</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J92" s="8">
-        <v>189.565</v>
-      </c>
       <c r="K92" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L92" s="1" t="str">
-        <f>CONCATENATE(A92,B92,C92,D92,E92,F92,G92,H92,I92,J92,K92)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("91","189.565","197.485","160.288","189.565");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("91","197.485","189.565","189.565","160.288");</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4126,21 +4178,21 @@
       <c r="G93" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="12">
+        <v>202.86</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J93" s="12">
         <v>171.89699999999999</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J93" s="8">
-        <v>202.86</v>
-      </c>
       <c r="K93" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L93" s="1" t="str">
-        <f>CONCATENATE(A93,B93,C93,D93,E93,F93,G93,H93,I93,J93,K93)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("92","202.86","202.86","171.897","202.86");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("92","202.86","202.86","202.86","171.897");</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4165,21 +4217,21 @@
       <c r="G94" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="12">
+        <v>203.53899999999999</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J94" s="12">
         <v>184.334</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J94" s="8">
-        <v>203.53899999999999</v>
-      </c>
       <c r="K94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L94" s="1" t="str">
-        <f>CONCATENATE(A94,B94,C94,D94,E94,F94,G94,H94,I94,J94,K94)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("93","203.539","203.539","184.334","203.539");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("93","203.539","203.539","203.539","184.334");</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4204,21 +4256,21 @@
       <c r="G95" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H95" s="12">
+        <v>204.452</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="12">
         <v>197.82900000000001</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J95" s="8">
-        <v>204.452</v>
-      </c>
       <c r="K95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L95" s="1" t="str">
-        <f>CONCATENATE(A95,B95,C95,D95,E95,F95,G95,H95,I95,J95,K95)</f>
-        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("94","205.229","205.229","197.829","204.452");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("94","205.229","205.229","204.452","197.829");</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4243,20 +4295,20 @@
       <c r="G96" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="12">
         <v>212.75399999999999</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="12">
         <v>212.75399999999999</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L96" s="1" t="str">
-        <f>CONCATENATE(A96,B96,C96,D96,E96,F96,G96,H96,I96,J96,K96)</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("95","221.697","221.697","212.754","212.754");</v>
       </c>
     </row>
@@ -4282,20 +4334,20 @@
       <c r="G97" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="12">
         <v>216.38399999999999</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="12">
         <v>216.38399999999999</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L97" s="1" t="str">
-        <f>CONCATENATE(A97,B97,C97,D97,E97,F97,G97,H97,I97,J97,K97)</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("96","239.097","239.097","216.384","216.384");</v>
       </c>
     </row>
@@ -4321,20 +4373,20 @@
       <c r="G98" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H98" s="8">
+      <c r="H98" s="12">
         <v>216.38399999999999</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J98" s="8">
+      <c r="J98" s="12">
         <v>216.38399999999999</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L98" s="1" t="str">
-        <f>CONCATENATE(A98,B98,C98,D98,E98,F98,G98,H98,I98,J98,K98)</f>
+        <f t="shared" ref="L98:L129" si="3">CONCATENATE(A98,B98,C98,D98,E98,F98,G98,H98,I98,J98,K98)</f>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("97","257.393","257.393","216.384","216.384");</v>
       </c>
     </row>
@@ -4360,20 +4412,20 @@
       <c r="G99" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H99" s="8">
+      <c r="H99" s="12">
         <v>218.60400000000001</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J99" s="8">
+      <c r="J99" s="12">
         <v>218.60400000000001</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L99" s="1" t="str">
-        <f>CONCATENATE(A99,B99,C99,D99,E99,F99,G99,H99,I99,J99,K99)</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("98","276.541","276.541","218.604","218.604");</v>
       </c>
     </row>
@@ -4387,38 +4439,37 @@
       <c r="C100" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="11">
         <v>296.49299999999999</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="11">
         <v>296.49299999999999</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H100" s="15">
         <v>236.55500000000001</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="15">
         <v>236.55500000000001</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L100" s="1" t="str">
-        <f>CONCATENATE(A100,B100,C100,D100,E100,F100,G100,H100,I100,J100,K100)</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO "BLIFE_UL" ("EntryAge","MS","MNS","FS","FNS") VALUES("99","296.493","296.493","236.555","236.555");</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
